--- a/src/main/java/com/qa/crm/testdata/CRMPRORegisterUser.xlsx
+++ b/src/main/java/com/qa/crm/testdata/CRMPRORegisterUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inrahmed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB5CFA4-CD66-4534-A8A8-D93B5449FC10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EDB5D9-D737-4F29-A689-5B143E433513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3828" xr2:uid="{83160C97-F8D5-4BFB-ACB5-B1455EC8FAEC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>FirstName</t>
   </si>
@@ -50,28 +50,67 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>danielbryan123@gmail.com</t>
-  </si>
-  <si>
-    <t>daniel123</t>
-  </si>
-  <si>
-    <t>Brock</t>
-  </si>
-  <si>
-    <t>Lesner</t>
-  </si>
-  <si>
-    <t>brocklesner123@gmail.com</t>
-  </si>
-  <si>
-    <t>brocklesner123</t>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>CompanyPhone</t>
+  </si>
+  <si>
+    <t>CompanyFax</t>
+  </si>
+  <si>
+    <t>CompanyWebsite</t>
+  </si>
+  <si>
+    <t>CompanyEmail</t>
+  </si>
+  <si>
+    <t>CompanyDescription</t>
+  </si>
+  <si>
+    <t>CompanyAddress</t>
+  </si>
+  <si>
+    <t>CompanyCity</t>
+  </si>
+  <si>
+    <t>CompanyState</t>
+  </si>
+  <si>
+    <t>CompanyPostalCode</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>mike.henry@gmail.com</t>
+  </si>
+  <si>
+    <t>mike123</t>
+  </si>
+  <si>
+    <t>Trade Co.</t>
+  </si>
+  <si>
+    <t>http://www.tradeco.com</t>
+  </si>
+  <si>
+    <t>trade@tradeco.com</t>
+  </si>
+  <si>
+    <t>Trading company</t>
+  </si>
+  <si>
+    <t>Seattle State Street</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Washington</t>
   </si>
 </sst>
 </file>
@@ -116,9 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -434,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC884136-8B60-4373-8DE4-6953B2726143}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,9 +488,20 @@
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,53 +520,97 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9845098450</v>
+      </c>
+      <c r="I2" s="2">
+        <v>13235551234</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2">
+        <v>90001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FAA5D9CB-0DCA-4E54-858D-20CF70AF807E}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{1FADFDDA-5F13-4F74-BB14-37D3D378329D}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{22843233-EDE1-4D5D-8F0E-7DE056E8672F}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{E753ABE5-4D0B-4582-8CAE-AEC49E022CC6}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A31B4725-6891-4B25-A2C9-6C260844F8AB}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{7C7E5AB6-94B7-4AD4-AFCB-0AD0B751A5C9}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{3A352326-3E2A-4069-B932-4FD63F64A5EE}"/>
+    <hyperlink ref="K2" r:id="rId4" xr:uid="{7E29DDA0-4849-4D1E-B16D-E6CC8D55D957}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/qa/crm/testdata/CRMPRORegisterUser.xlsx
+++ b/src/main/java/com/qa/crm/testdata/CRMPRORegisterUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inrahmed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EDB5D9-D737-4F29-A689-5B143E433513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A3E5A9-F555-4BA9-9542-495778EA6A64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3828" xr2:uid="{83160C97-F8D5-4BFB-ACB5-B1455EC8FAEC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>FirstName</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Washington</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Stacey</t>
+  </si>
+  <si>
+    <t>john.stacey@yahoo.com</t>
+  </si>
+  <si>
+    <t>johnstacey123</t>
   </si>
 </sst>
 </file>
@@ -476,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC884136-8B60-4373-8DE4-6953B2726143}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,8 +614,54 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>9845198451</v>
+      </c>
+      <c r="I3">
+        <v>13235551234</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3">
+        <v>90001</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -611,6 +669,10 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{7C7E5AB6-94B7-4AD4-AFCB-0AD0B751A5C9}"/>
     <hyperlink ref="J2" r:id="rId3" xr:uid="{3A352326-3E2A-4069-B932-4FD63F64A5EE}"/>
     <hyperlink ref="K2" r:id="rId4" xr:uid="{7E29DDA0-4849-4D1E-B16D-E6CC8D55D957}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{9372C1AA-07D8-4A7E-8D51-B741464CD6E7}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{6D27F587-AF61-428F-85D0-E3C77432A466}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{7E28DC4F-2C45-4EF6-BA6F-47F0B9F5E41C}"/>
+    <hyperlink ref="K3" r:id="rId8" xr:uid="{96FC9625-44AC-440C-B516-014EA006F855}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/qa/crm/testdata/CRMPRORegisterUser.xlsx
+++ b/src/main/java/com/qa/crm/testdata/CRMPRORegisterUser.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inrahmed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A3E5A9-F555-4BA9-9542-495778EA6A64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F536E459-9E23-4C76-9657-9A14E0B9CA6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3828" xr2:uid="{83160C97-F8D5-4BFB-ACB5-B1455EC8FAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterValidUser" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterCompanyDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,18 +81,6 @@
     <t>CompanyPostalCode</t>
   </si>
   <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>mike.henry@gmail.com</t>
-  </si>
-  <si>
-    <t>mike123</t>
-  </si>
-  <si>
     <t>Trade Co.</t>
   </si>
   <si>
@@ -113,16 +102,28 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Stacey</t>
-  </si>
-  <si>
-    <t>john.stacey@yahoo.com</t>
-  </si>
-  <si>
-    <t>johnstacey123</t>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>Lohan</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>lindsey.lohan@gmail.com</t>
+  </si>
+  <si>
+    <t>kate.william@yahoo.com</t>
+  </si>
+  <si>
+    <t>lindsey123</t>
+  </si>
+  <si>
+    <t>kate123</t>
   </si>
 </sst>
 </file>
@@ -486,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC884136-8B60-4373-8DE4-6953B2726143}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +514,7 @@
     <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,147 +533,182 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9845098450</v>
-      </c>
-      <c r="I2" s="2">
-        <v>13235551234</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="P2">
-        <v>90001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>9845198451</v>
-      </c>
-      <c r="I3">
-        <v>13235551234</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3">
-        <v>90001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A31B4725-6891-4B25-A2C9-6C260844F8AB}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{7C7E5AB6-94B7-4AD4-AFCB-0AD0B751A5C9}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{3A352326-3E2A-4069-B932-4FD63F64A5EE}"/>
-    <hyperlink ref="K2" r:id="rId4" xr:uid="{7E29DDA0-4849-4D1E-B16D-E6CC8D55D957}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{9372C1AA-07D8-4A7E-8D51-B741464CD6E7}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{6D27F587-AF61-428F-85D0-E3C77432A466}"/>
-    <hyperlink ref="J3" r:id="rId7" xr:uid="{7E28DC4F-2C45-4EF6-BA6F-47F0B9F5E41C}"/>
-    <hyperlink ref="K3" r:id="rId8" xr:uid="{96FC9625-44AC-440C-B516-014EA006F855}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{9372C1AA-07D8-4A7E-8D51-B741464CD6E7}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{6D27F587-AF61-428F-85D0-E3C77432A466}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4B960E-4853-4870-B11F-79450966934E}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9845098450</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13235551234</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>90001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>9845198451</v>
+      </c>
+      <c r="C3">
+        <v>13235551234</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>90001</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3A352326-3E2A-4069-B932-4FD63F64A5EE}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{7E29DDA0-4849-4D1E-B16D-E6CC8D55D957}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{7E28DC4F-2C45-4EF6-BA6F-47F0B9F5E41C}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{96FC9625-44AC-440C-B516-014EA006F855}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
